--- a/pizzaInfo.xlsx
+++ b/pizzaInfo.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,311 +441,117 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>메뉴</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>개수</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>가격</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>도우</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>직화 스테이크</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>28000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>오리지널 도우(기본)</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>글로벌 레전드4</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="A3" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>36900</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>77800</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>슈퍼시드 함유 도우</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>스타 셰프 트러플 바질</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
+      <c r="A4" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>우리고구마</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>36900</v>
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>슈퍼시드 함유 도우</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>글로벌 레전드4</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>139600</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30 치즈&amp;뉴욕 스트립 스테이크</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>글로벌 레전드4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>스타 셰프 트러플 바질</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>83800</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>베이컨체더치즈</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29900</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>시리얼 칠리크랩</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>34900</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>글로벌 레전드4</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>우리고구마</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29900</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>우리고구마</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>스타 셰프 시그니처</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>194500</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>스타 셰프 시그니처</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>110700</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>스타 셰프 시그니처</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>73800</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>베이컨체더치즈</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>110700</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>글로벌 레전드4</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>107700</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>스타 셰프 트러플 바질</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>스타 셰프 트러플 바질</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>29900</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>시리얼 칠리크랩</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>69800</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>스타 셰프 트러플 바질</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>36900</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>스타 셰프 트러플 바질</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>38900</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35900</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>씬 도우(기본 갈릭디핑 소스 미제공</t>
         </is>
       </c>
     </row>

--- a/pizzaInfo.xlsx
+++ b/pizzaInfo.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,29 +529,71 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>글로벌 레전드4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35900</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>씬 도우(기본 갈릭디핑 소스 미제공</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36900</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>나폴리 도우</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2020-12-01</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>글로벌 레전드4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>35900</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>씬 도우(기본 갈릭디핑 소스 미제공</t>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37900</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>씬 도우(갈릭디핑 소스 미제공)</t>
         </is>
       </c>
     </row>

--- a/pizzaInfo.xlsx
+++ b/pizzaInfo.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,29 +571,92 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37900</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>씬 도우(갈릭디핑 소스 미제공)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31900</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>나폴리 도우</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>스타 셰프 트러플 바질</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41400</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>나폴리 도우</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2020-12-01</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>스타 셰프 트러플 바질</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>37900</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>씬 도우(갈릭디핑 소스 미제공)</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36900</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>나폴리 도우</t>
         </is>
       </c>
     </row>
